--- a/src/main/resources/excels/PlanPermissionTcs.xlsx
+++ b/src/main/resources/excels/PlanPermissionTcs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20361"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\projectIJ\src\main\resources\excels\"/>
     </mc:Choice>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="38">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -143,12 +143,19 @@
   </si>
   <si>
     <t>The package has permission as document (PlanPermission.xlsx)</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>PASS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -442,10 +449,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="37.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="39.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="29.21875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="39.5546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="37.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="39.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="29.21875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="39.5546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
@@ -478,6 +485,9 @@
       <c r="D2" s="3" t="s">
         <v>35</v>
       </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -492,6 +502,9 @@
       <c r="D3" s="3" t="s">
         <v>35</v>
       </c>
+      <c r="E3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -506,6 +519,9 @@
       <c r="D4" s="3" t="s">
         <v>35</v>
       </c>
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
@@ -520,6 +536,9 @@
       <c r="D5" s="3" t="s">
         <v>35</v>
       </c>
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
@@ -534,6 +553,9 @@
       <c r="D6" s="3" t="s">
         <v>35</v>
       </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
@@ -548,6 +570,9 @@
       <c r="D7" s="3" t="s">
         <v>35</v>
       </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
@@ -562,6 +587,9 @@
       <c r="D8" s="3" t="s">
         <v>35</v>
       </c>
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
@@ -576,6 +604,9 @@
       <c r="D9" s="3" t="s">
         <v>35</v>
       </c>
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
@@ -590,6 +621,9 @@
       <c r="D10" s="3" t="s">
         <v>35</v>
       </c>
+      <c r="E10" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
@@ -603,6 +637,9 @@
       </c>
       <c r="D11" s="3" t="s">
         <v>35</v>
+      </c>
+      <c r="E11" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/excels/PlanPermissionTcs.xlsx
+++ b/src/main/resources/excels/PlanPermissionTcs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\projectIJ\src\main\resources\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D10A28-8F70-4588-8040-88297F7FF363}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18AEC653-8506-44F5-8E9D-1310B696B0AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13224" windowHeight="4116" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="39">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -32,9 +32,6 @@
   </si>
   <si>
     <t>Expected</t>
-  </si>
-  <si>
-    <t>Result</t>
   </si>
   <si>
     <t>PP01</t>
@@ -149,6 +146,12 @@
   </si>
   <si>
     <t>PASS</t>
+  </si>
+  <si>
+    <t>Result ENG</t>
+  </si>
+  <si>
+    <t>Result VIE</t>
   </si>
 </sst>
 </file>
@@ -441,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69A4A677-518A-48BB-8010-525829611E69}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -452,10 +455,11 @@
     <col min="2" max="2" customWidth="true" width="37.33203125" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="39.6640625" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="29.21875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="39.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="17.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -469,177 +473,186 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" t="s">
         <v>35</v>
       </c>
-      <c r="E2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4" t="s">
+    </row>
+    <row r="4" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
         <v>35</v>
       </c>
-      <c r="E3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="3" t="s">
+    </row>
+    <row r="6" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
         <v>35</v>
       </c>
-      <c r="E4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="3" t="s">
+    </row>
+    <row r="9" spans="1:6" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
         <v>35</v>
       </c>
-      <c r="E5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="3" t="s">
+    </row>
+    <row r="10" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" t="s">
         <v>35</v>
       </c>
-      <c r="E6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="3" t="s">
+    </row>
+    <row r="11" spans="1:6" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" t="s">
         <v>35</v>
-      </c>
-      <c r="E7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/excels/PlanPermissionTcs.xlsx
+++ b/src/main/resources/excels/PlanPermissionTcs.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="39">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -492,11 +492,11 @@
       <c r="D2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" t="s">
-        <v>35</v>
+      <c r="E2" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -512,10 +512,10 @@
       <c r="D3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="E3" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="F3" t="s" s="0">
         <v>35</v>
       </c>
     </row>
@@ -532,7 +532,10 @@
       <c r="D4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="F4" t="s" s="0">
         <v>36</v>
       </c>
     </row>
@@ -549,8 +552,11 @@
       <c r="D5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E5" t="s">
-        <v>35</v>
+      <c r="E5" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
@@ -566,7 +572,10 @@
       <c r="D6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="F6" t="s" s="0">
         <v>36</v>
       </c>
     </row>
@@ -583,7 +592,10 @@
       <c r="D7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="F7" t="s" s="0">
         <v>36</v>
       </c>
     </row>
@@ -600,8 +612,11 @@
       <c r="D8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E8" t="s">
-        <v>35</v>
+      <c r="E8" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -617,7 +632,10 @@
       <c r="D9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="F9" t="s" s="0">
         <v>35</v>
       </c>
     </row>
@@ -634,8 +652,11 @@
       <c r="D10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E10" t="s">
-        <v>35</v>
+      <c r="E10" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -651,7 +672,10 @@
       <c r="D11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="F11" t="s" s="0">
         <v>35</v>
       </c>
     </row>

--- a/src/main/resources/excels/PlanPermissionTcs.xlsx
+++ b/src/main/resources/excels/PlanPermissionTcs.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="39">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -553,7 +553,7 @@
         <v>34</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F5" t="s" s="0">
         <v>36</v>
@@ -633,7 +633,7 @@
         <v>34</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F9" t="s" s="0">
         <v>35</v>
@@ -673,7 +673,7 @@
         <v>34</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F11" t="s" s="0">
         <v>35</v>

--- a/src/main/resources/excels/PlanPermissionTcs.xlsx
+++ b/src/main/resources/excels/PlanPermissionTcs.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="39">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -493,7 +493,7 @@
         <v>34</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F2" t="s" s="0">
         <v>36</v>
